--- a/team_specific_matrix/Purdue Fort Wayne_B.xlsx
+++ b/team_specific_matrix/Purdue Fort Wayne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1984126984126984</v>
+        <v>0.2087542087542087</v>
       </c>
       <c r="C2">
-        <v>0.5515873015873016</v>
+        <v>0.531986531986532</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01984126984126984</v>
+        <v>0.02356902356902357</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003968253968253968</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="P2">
-        <v>0.1388888888888889</v>
+        <v>0.1346801346801347</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0873015873015873</v>
+        <v>0.09764309764309764</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02083333333333333</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C3">
-        <v>0.03472222222222222</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02083333333333333</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7430555555555556</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1805555555555556</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631578947368421</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6842105263157895</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2894736842105263</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05076142131979695</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01015228426395939</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="F6">
-        <v>0.09137055837563451</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2182741116751269</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03045685279187817</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.16751269035533</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="R6">
-        <v>0.03553299492385787</v>
+        <v>0.0375</v>
       </c>
       <c r="S6">
-        <v>0.3959390862944163</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1214285714285714</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02857142857142857</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1214285714285714</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1071428571428571</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02857142857142857</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1714285714285714</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="R7">
-        <v>0.07857142857142857</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="S7">
-        <v>0.3428571428571429</v>
+        <v>0.3742690058479532</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1008174386920981</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02452316076294278</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05722070844686648</v>
+        <v>0.0640495867768595</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.111716621253406</v>
+        <v>0.09710743801652892</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0326975476839237</v>
+        <v>0.03099173553719008</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1689373297002725</v>
+        <v>0.1528925619834711</v>
       </c>
       <c r="R8">
-        <v>0.08446866485013624</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="S8">
-        <v>0.4196185286103542</v>
+        <v>0.4607438016528926</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09743589743589744</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02051282051282051</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09230769230769231</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1076923076923077</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05641025641025641</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.158974358974359</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="R9">
-        <v>0.08205128205128205</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="S9">
-        <v>0.3846153846153846</v>
+        <v>0.4338842975206612</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1068334937439846</v>
+        <v>0.1044657097288676</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02021174205967276</v>
+        <v>0.0215311004784689</v>
       </c>
       <c r="E10">
-        <v>0.0009624639076034649</v>
+        <v>0.0007974481658692185</v>
       </c>
       <c r="F10">
-        <v>0.07314725697786333</v>
+        <v>0.07336523125996811</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193455245428297</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01058710298363811</v>
+        <v>0.01116427432216906</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2223291626564004</v>
+        <v>0.2169059011164274</v>
       </c>
       <c r="R10">
-        <v>0.07025986525505294</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="S10">
-        <v>0.3763233878729548</v>
+        <v>0.3827751196172249</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1069958847736626</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1152263374485597</v>
+        <v>0.1061643835616438</v>
       </c>
       <c r="K11">
-        <v>0.1810699588477366</v>
+        <v>0.1883561643835616</v>
       </c>
       <c r="L11">
-        <v>0.5637860082304527</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03292181069958848</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6824324324324325</v>
+        <v>0.7062146892655368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1756756756756757</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="K12">
-        <v>0.01351351351351351</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="L12">
-        <v>0.07432432432432433</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05405405405405406</v>
+        <v>0.05649717514124294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5666666666666667</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3666666666666666</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005524861878453038</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1546961325966851</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="I15">
-        <v>0.06629834254143646</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="J15">
-        <v>0.3149171270718232</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="K15">
-        <v>0.07734806629834254</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03314917127071823</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="N15">
-        <v>0.005524861878453038</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="O15">
-        <v>0.09392265193370165</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2486187845303867</v>
+        <v>0.2568807339449541</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0124223602484472</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2546583850931677</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="I16">
-        <v>0.09316770186335403</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="J16">
-        <v>0.4099378881987578</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="K16">
-        <v>0.1055900621118012</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04347826086956522</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08074534161490683</v>
+        <v>0.08791208791208792</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01837270341207349</v>
+        <v>0.01552106430155211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2020997375328084</v>
+        <v>0.2084257206208426</v>
       </c>
       <c r="I17">
-        <v>0.09973753280839895</v>
+        <v>0.1019955654101996</v>
       </c>
       <c r="J17">
-        <v>0.3910761154855643</v>
+        <v>0.3991130820399113</v>
       </c>
       <c r="K17">
-        <v>0.1154855643044619</v>
+        <v>0.1130820399113082</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01574803149606299</v>
+        <v>0.01330376940133038</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08136482939632546</v>
+        <v>0.07538802660753881</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07611548556430446</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0072992700729927</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1313868613138686</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="I18">
-        <v>0.1094890510948905</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="J18">
-        <v>0.4525547445255474</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="K18">
-        <v>0.1313868613138686</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0218978102189781</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05109489051094891</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0948905109489051</v>
+        <v>0.08433734939759036</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01198801198801199</v>
+        <v>0.01319875776397516</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2067932067932068</v>
+        <v>0.2243788819875776</v>
       </c>
       <c r="I19">
-        <v>0.1148851148851149</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="J19">
-        <v>0.4005994005994006</v>
+        <v>0.3835403726708074</v>
       </c>
       <c r="K19">
-        <v>0.1008991008991009</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01798201798201798</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N19">
-        <v>0.001998001998001998</v>
+        <v>0.001552795031055901</v>
       </c>
       <c r="O19">
-        <v>0.05394605394605394</v>
+        <v>0.05279503105590062</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09090909090909091</v>
+        <v>0.09239130434782608</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Purdue Fort Wayne_B.xlsx
+++ b/team_specific_matrix/Purdue Fort Wayne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2087542087542087</v>
+        <v>0.2074303405572755</v>
       </c>
       <c r="C2">
-        <v>0.531986531986532</v>
+        <v>0.5325077399380805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02356902356902357</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003367003367003367</v>
+        <v>0.003095975232198143</v>
       </c>
       <c r="P2">
-        <v>0.1346801346801347</v>
+        <v>0.1331269349845201</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09764309764309764</v>
+        <v>0.09907120743034056</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01851851851851852</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="C3">
-        <v>0.03703703703703703</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01851851851851852</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7283950617283951</v>
+        <v>0.7329545454545454</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1975308641975309</v>
+        <v>0.1988636363636364</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6808510638297872</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2978723404255319</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04583333333333333</v>
+        <v>0.046875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.0078125</v>
       </c>
       <c r="E6">
-        <v>0.004166666666666667</v>
+        <v>0.00390625</v>
       </c>
       <c r="F6">
-        <v>0.08333333333333333</v>
+        <v>0.0859375</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2291666666666667</v>
+        <v>0.2265625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02916666666666667</v>
+        <v>0.03125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1708333333333333</v>
+        <v>0.171875</v>
       </c>
       <c r="R6">
-        <v>0.0375</v>
+        <v>0.046875</v>
       </c>
       <c r="S6">
-        <v>0.3916666666666667</v>
+        <v>0.37890625</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02923976608187134</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1052631578947368</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1169590643274854</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03508771929824561</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1637426900584795</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="R7">
-        <v>0.07017543859649122</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="S7">
-        <v>0.3742690058479532</v>
+        <v>0.3567567567567568</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08884297520661157</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02272727272727273</v>
+        <v>0.02509652509652509</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0640495867768595</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09710743801652892</v>
+        <v>0.09845559845559845</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03099173553719008</v>
+        <v>0.03281853281853282</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1528925619834711</v>
+        <v>0.1563706563706564</v>
       </c>
       <c r="R8">
-        <v>0.08264462809917356</v>
+        <v>0.07915057915057915</v>
       </c>
       <c r="S8">
-        <v>0.4607438016528926</v>
+        <v>0.4517374517374517</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09917355371900827</v>
+        <v>0.09885931558935361</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02066115702479339</v>
+        <v>0.02281368821292776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07851239669421488</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09917355371900827</v>
+        <v>0.09505703422053231</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04958677685950413</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1487603305785124</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="R9">
-        <v>0.07024793388429752</v>
+        <v>0.06844106463878327</v>
       </c>
       <c r="S9">
-        <v>0.4338842975206612</v>
+        <v>0.4296577946768061</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044657097288676</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0215311004784689</v>
+        <v>0.02075611564121571</v>
       </c>
       <c r="E10">
-        <v>0.0007974481658692185</v>
+        <v>0.001482579688658265</v>
       </c>
       <c r="F10">
-        <v>0.07336523125996811</v>
+        <v>0.07116382505559674</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1172248803827751</v>
+        <v>0.1156412157153447</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01116427432216906</v>
+        <v>0.01186063750926612</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2169059011164274</v>
+        <v>0.2157153446997776</v>
       </c>
       <c r="R10">
-        <v>0.07177033492822966</v>
+        <v>0.07412898443291327</v>
       </c>
       <c r="S10">
-        <v>0.3827751196172249</v>
+        <v>0.3839881393624907</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1095890410958904</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1061643835616438</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="K11">
-        <v>0.1883561643835616</v>
+        <v>0.1878980891719745</v>
       </c>
       <c r="L11">
-        <v>0.5616438356164384</v>
+        <v>0.5636942675159236</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03424657534246575</v>
+        <v>0.03184713375796178</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7062146892655368</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1581920903954802</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K12">
-        <v>0.01129943502824859</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L12">
-        <v>0.06779661016949153</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05649717514124294</v>
+        <v>0.06842105263157895</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5405405405405406</v>
+        <v>0.575</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3783783783783784</v>
+        <v>0.35</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01376146788990826</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1651376146788991</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="I15">
-        <v>0.06422018348623854</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="J15">
-        <v>0.3211009174311927</v>
+        <v>0.326271186440678</v>
       </c>
       <c r="K15">
-        <v>0.06880733944954129</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02752293577981652</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="N15">
-        <v>0.004587155963302753</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="O15">
-        <v>0.07798165137614679</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2568807339449541</v>
+        <v>0.2711864406779661</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02197802197802198</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2417582417582418</v>
+        <v>0.2412060301507538</v>
       </c>
       <c r="I16">
-        <v>0.09340659340659341</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="J16">
-        <v>0.4175824175824176</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="K16">
-        <v>0.0989010989010989</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03846153846153846</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08791208791208792</v>
+        <v>0.08040201005025126</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01552106430155211</v>
+        <v>0.01629327902240326</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2084257206208426</v>
+        <v>0.2016293279022403</v>
       </c>
       <c r="I17">
-        <v>0.1019955654101996</v>
+        <v>0.09979633401221996</v>
       </c>
       <c r="J17">
-        <v>0.3991130820399113</v>
+        <v>0.4032586558044807</v>
       </c>
       <c r="K17">
-        <v>0.1130820399113082</v>
+        <v>0.1120162932790224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01330376940133038</v>
+        <v>0.01425661914460285</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07538802660753881</v>
+        <v>0.07331975560081466</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07317073170731707</v>
+        <v>0.07942973523421588</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01204819277108434</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.144578313253012</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="I18">
-        <v>0.1144578313253012</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="J18">
-        <v>0.4397590361445783</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K18">
-        <v>0.1204819277108434</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02409638554216868</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06024096385542169</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08433734939759036</v>
+        <v>0.07650273224043716</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01319875776397516</v>
+        <v>0.01227436823104693</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2243788819875776</v>
+        <v>0.2223826714801444</v>
       </c>
       <c r="I19">
-        <v>0.1141304347826087</v>
+        <v>0.1155234657039711</v>
       </c>
       <c r="J19">
-        <v>0.3835403726708074</v>
+        <v>0.3848375451263538</v>
       </c>
       <c r="K19">
-        <v>0.09937888198757763</v>
+        <v>0.09819494584837545</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01863354037267081</v>
+        <v>0.01732851985559567</v>
       </c>
       <c r="N19">
-        <v>0.001552795031055901</v>
+        <v>0.001444043321299639</v>
       </c>
       <c r="O19">
-        <v>0.05279503105590062</v>
+        <v>0.05342960288808665</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09239130434782608</v>
+        <v>0.09458483754512635</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Purdue Fort Wayne_B.xlsx
+++ b/team_specific_matrix/Purdue Fort Wayne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2074303405572755</v>
+        <v>0.2067901234567901</v>
       </c>
       <c r="C2">
-        <v>0.5325077399380805</v>
+        <v>0.5339506172839507</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02476780185758514</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003095975232198143</v>
+        <v>0.00308641975308642</v>
       </c>
       <c r="P2">
-        <v>0.1331269349845201</v>
+        <v>0.1327160493827161</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09907120743034056</v>
+        <v>0.09876543209876543</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01704545454545454</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C3">
-        <v>0.03409090909090909</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01704545454545454</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7329545454545454</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1988636363636364</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6862745098039216</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2941176470588235</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.046875</v>
+        <v>0.04528301886792453</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0078125</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="E6">
-        <v>0.00390625</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="F6">
-        <v>0.0859375</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2265625</v>
+        <v>0.2226415094339623</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03125</v>
+        <v>0.03018867924528302</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.171875</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="R6">
-        <v>0.046875</v>
+        <v>0.04905660377358491</v>
       </c>
       <c r="S6">
-        <v>0.37890625</v>
+        <v>0.3773584905660378</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1189189189189189</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02702702702702703</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1027027027027027</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1189189189189189</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03243243243243243</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1675675675675676</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R7">
-        <v>0.07567567567567568</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S7">
-        <v>0.3567567567567568</v>
+        <v>0.3563829787234042</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08880308880308881</v>
+        <v>0.08768656716417911</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02509652509652509</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06756756756756757</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09845559845559845</v>
+        <v>0.1026119402985075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03281853281853282</v>
+        <v>0.03171641791044776</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1563706563706564</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="R8">
-        <v>0.07915057915057915</v>
+        <v>0.07649253731343283</v>
       </c>
       <c r="S8">
-        <v>0.4517374517374517</v>
+        <v>0.4533582089552239</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09885931558935361</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02281368821292776</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07224334600760456</v>
+        <v>0.06934306569343066</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09505703422053231</v>
+        <v>0.09854014598540146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04562737642585551</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1673003802281369</v>
+        <v>0.1642335766423358</v>
       </c>
       <c r="R9">
-        <v>0.06844106463878327</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="S9">
-        <v>0.4296577946768061</v>
+        <v>0.4343065693430657</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052631578947368</v>
+        <v>0.1017191977077364</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02075611564121571</v>
+        <v>0.02077363896848138</v>
       </c>
       <c r="E10">
-        <v>0.001482579688658265</v>
+        <v>0.001432664756446991</v>
       </c>
       <c r="F10">
-        <v>0.07116382505559674</v>
+        <v>0.07163323782234957</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1156412157153447</v>
+        <v>0.1160458452722063</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01186063750926612</v>
+        <v>0.01217765042979943</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2157153446997776</v>
+        <v>0.2134670487106017</v>
       </c>
       <c r="R10">
-        <v>0.07412898443291327</v>
+        <v>0.07664756446991404</v>
       </c>
       <c r="S10">
-        <v>0.3839881393624907</v>
+        <v>0.3861031518624642</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1146496815286624</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1019108280254777</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="K11">
-        <v>0.1878980891719745</v>
+        <v>0.1894409937888199</v>
       </c>
       <c r="L11">
-        <v>0.5636942675159236</v>
+        <v>0.562111801242236</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03184713375796178</v>
+        <v>0.03105590062111801</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>0.6958762886597938</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1578947368421053</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="K12">
-        <v>0.01052631578947368</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="L12">
-        <v>0.06315789473684211</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06842105263157895</v>
+        <v>0.06701030927835051</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.575</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01271186440677966</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1610169491525424</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="I15">
-        <v>0.05932203389830509</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="J15">
-        <v>0.326271186440678</v>
+        <v>0.3374485596707819</v>
       </c>
       <c r="K15">
-        <v>0.06779661016949153</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02542372881355932</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N15">
-        <v>0.00423728813559322</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O15">
-        <v>0.07203389830508475</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2711864406779661</v>
+        <v>0.2674897119341564</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03015075376884422</v>
+        <v>0.03</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2412060301507538</v>
+        <v>0.24</v>
       </c>
       <c r="I16">
-        <v>0.1005025125628141</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.407035175879397</v>
+        <v>0.41</v>
       </c>
       <c r="K16">
-        <v>0.09547738693467336</v>
+        <v>0.095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005025125628140704</v>
+        <v>0.005</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04020100502512563</v>
+        <v>0.04</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08040201005025126</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01629327902240326</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2016293279022403</v>
+        <v>0.2043650793650794</v>
       </c>
       <c r="I17">
-        <v>0.09979633401221996</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="J17">
-        <v>0.4032586558044807</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="K17">
-        <v>0.1120162932790224</v>
+        <v>0.1091269841269841</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01425661914460285</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07331975560081466</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07942973523421588</v>
+        <v>0.08134920634920635</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01092896174863388</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1530054644808743</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="I18">
-        <v>0.1147540983606557</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="J18">
-        <v>0.4262295081967213</v>
+        <v>0.4093264248704663</v>
       </c>
       <c r="K18">
-        <v>0.1256830601092896</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0273224043715847</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06557377049180328</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07650273224043716</v>
+        <v>0.08290155440414508</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01227436823104693</v>
+        <v>0.01186322400558269</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2223826714801444</v>
+        <v>0.2226099092812282</v>
       </c>
       <c r="I19">
-        <v>0.1155234657039711</v>
+        <v>0.1165387299371947</v>
       </c>
       <c r="J19">
-        <v>0.3848375451263538</v>
+        <v>0.3845080251221214</v>
       </c>
       <c r="K19">
-        <v>0.09819494584837545</v>
+        <v>0.09909281228192603</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01732851985559567</v>
+        <v>0.01744591765526867</v>
       </c>
       <c r="N19">
-        <v>0.001444043321299639</v>
+        <v>0.001395673412421493</v>
       </c>
       <c r="O19">
-        <v>0.05342960288808665</v>
+        <v>0.05373342637822749</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09458483754512635</v>
+        <v>0.09281228192602931</v>
       </c>
     </row>
   </sheetData>
